--- a/history.xlsx
+++ b/history.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangeeth\Desktop\c\Simple  hockey points table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangeeth\Desktop\c\Simple  hockey points table\Simple-hockey-points-table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A74E11-C8FD-47E6-A49D-9C47CA0D0F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F720B2-E692-4F28-8BBF-269186252161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Team 1</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Team YYY</t>
+  </si>
+  <si>
+    <t>dsd</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,6 +597,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/history.xlsx
+++ b/history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangeeth\Desktop\c\Simple  hockey points table\Simple-hockey-points-table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F720B2-E692-4F28-8BBF-269186252161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6EF233-021D-41DD-A9B1-162585031553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Team 1</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Team YYY</t>
-  </si>
-  <si>
-    <t>dsd</t>
   </si>
 </sst>
 </file>
@@ -463,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,13 +473,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -490,116 +487,111 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
+      <c r="B4" t="s">
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/history.xlsx
+++ b/history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangeeth\Desktop\c\Simple  hockey points table\Simple-hockey-points-table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6EF233-021D-41DD-A9B1-162585031553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14E4E60-9366-46C3-A9E4-E0E9E2971263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Team 1</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>Team YYY</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>78-1</t>
   </si>
 </sst>
 </file>
@@ -460,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,6 +603,20 @@
         <v>22</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/history.xlsx
+++ b/history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangeeth\Desktop\c\Simple  hockey points table\Simple-hockey-points-table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14E4E60-9366-46C3-A9E4-E0E9E2971263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E50552-657A-42C5-B510-A0A9E42F9D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Team 1</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>78-1</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>33-7</t>
   </si>
 </sst>
 </file>
@@ -469,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,6 +623,20 @@
         <v>26</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/history.xlsx
+++ b/history.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangeeth\Desktop\c\Simple  hockey points table\Simple-hockey-points-table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E50552-657A-42C5-B510-A0A9E42F9D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4416AE0B-8BE7-427C-B4CA-2C8A805D329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="252" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Team 1</t>
   </si>
@@ -101,12 +101,6 @@
   </si>
   <si>
     <t>78-1</t>
-  </si>
-  <si>
-    <t>XXX</t>
-  </si>
-  <si>
-    <t>33-7</t>
   </si>
 </sst>
 </file>
@@ -478,7 +472,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,18 +618,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
